--- a/Assets/Resources/Data/Equip/Attack/Excel/AttackEquipData.xlsx
+++ b/Assets/Resources/Data/Equip/Attack/Excel/AttackEquipData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\Attack\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E948136-03A6-464D-90E4-7E950A92C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8705E-039B-4156-B7AD-4AC1A058EA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41040" yWindow="3330" windowWidth="25155" windowHeight="11385" xr2:uid="{230051DC-4559-4297-8BE5-281B059A895E}"/>
+    <workbookView xWindow="3030" yWindow="6825" windowWidth="25155" windowHeight="11385" xr2:uid="{230051DC-4559-4297-8BE5-281B059A895E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="A1:T41"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>-1</v>
@@ -804,7 +804,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E3">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>-1</v>
@@ -866,7 +866,7 @@
         <v>1.2</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -878,7 +878,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>-1</v>
@@ -928,7 +928,7 @@
         <v>1.3</v>
       </c>
       <c r="E5">
-        <v>0.25</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -940,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -990,7 +990,7 @@
         <v>1.4</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>-1</v>

--- a/Assets/Resources/Data/Equip/Attack/Excel/AttackEquipData.xlsx
+++ b/Assets/Resources/Data/Equip/Attack/Excel/AttackEquipData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\Attack\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8705E-039B-4156-B7AD-4AC1A058EA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5BA3F-3724-4539-896D-9B8F795D02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="6825" windowWidth="25155" windowHeight="11385" xr2:uid="{230051DC-4559-4297-8BE5-281B059A895E}"/>
   </bookViews>
@@ -639,7 +639,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -804,7 +804,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E3">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -866,7 +866,7 @@
         <v>1.2</v>
       </c>
       <c r="E4">
-        <v>0.57999999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -928,7 +928,7 @@
         <v>1.3</v>
       </c>
       <c r="E5">
-        <v>0.56999999999999995</v>
+        <v>0.9</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -990,7 +990,7 @@
         <v>1.4</v>
       </c>
       <c r="E6">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>8</v>

--- a/Assets/Resources/Data/Equip/Attack/Excel/AttackEquipData.xlsx
+++ b/Assets/Resources/Data/Equip/Attack/Excel/AttackEquipData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\Attack\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5BA3F-3724-4539-896D-9B8F795D02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E348A-FABB-4137-AB3F-1E37B5D1EF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="6825" windowWidth="25155" windowHeight="11385" xr2:uid="{230051DC-4559-4297-8BE5-281B059A895E}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="26505" windowHeight="18300" xr2:uid="{230051DC-4559-4297-8BE5-281B059A895E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,26 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아칸01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아칸02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아칸03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아칸04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아칸05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>collisionCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +250,22 @@
   <si>
     <t>equipName</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트닝01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트닝02</t>
+  </si>
+  <si>
+    <t>라이트닝03</t>
+  </si>
+  <si>
+    <t>라이트닝04</t>
+  </si>
+  <si>
+    <t>라이트닝05</t>
   </si>
 </sst>
 </file>
@@ -639,7 +635,8 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -698,7 +695,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>24</v>
@@ -710,22 +707,22 @@
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -1055,7 +1052,7 @@
         <v>1.5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G7">
         <v>0.5</v>
@@ -1117,7 +1114,7 @@
         <v>1.4</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G8">
         <v>0.5</v>
@@ -1179,7 +1176,7 @@
         <v>1.3</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G9">
         <v>0.5</v>
@@ -1241,7 +1238,7 @@
         <v>1.2</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -1303,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G11">
         <v>0.5</v>
@@ -1377,7 +1374,7 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1439,7 +1436,7 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="K13">
         <v>2.1</v>
@@ -1501,7 +1498,7 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>2.2000000000000002</v>
@@ -1563,7 +1560,7 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K15">
         <v>2.2999999999999998</v>
@@ -1625,7 +1622,7 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>2.5</v>
@@ -1693,7 +1690,7 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -1755,7 +1752,7 @@
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M18">
         <v>2.5</v>
@@ -1817,7 +1814,7 @@
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="M19">
         <v>3</v>
@@ -1879,7 +1876,7 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="M20">
         <v>3.5</v>
@@ -1973,13 +1970,13 @@
         <v>10501</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2035,13 +2032,13 @@
         <v>10502</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E23">
         <v>0.9</v>
@@ -2097,13 +2094,13 @@
         <v>10503</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="E24">
         <v>0.8</v>
@@ -2159,13 +2156,13 @@
         <v>10504</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="E25">
         <v>0.7</v>
@@ -2221,13 +2218,13 @@
         <v>10505</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E26">
         <v>0.6</v>
@@ -2283,7 +2280,7 @@
         <v>10601</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2298,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2345,7 +2342,7 @@
         <v>10602</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2360,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2407,7 +2404,7 @@
         <v>10603</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2422,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2469,7 +2466,7 @@
         <v>10604</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -2484,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2531,7 +2528,7 @@
         <v>10605</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -2546,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2593,7 +2590,7 @@
         <v>10701</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2655,7 +2652,7 @@
         <v>10702</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2717,7 +2714,7 @@
         <v>10703</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2779,7 +2776,7 @@
         <v>10704</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2841,13 +2838,13 @@
         <v>10705</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2903,7 +2900,7 @@
         <v>10801</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2912,7 +2909,7 @@
         <v>1.5</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -2965,7 +2962,7 @@
         <v>10802</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2974,7 +2971,7 @@
         <v>1.7</v>
       </c>
       <c r="E38">
-        <v>8.5</v>
+        <v>24</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -3027,7 +3024,7 @@
         <v>10803</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -3036,7 +3033,7 @@
         <v>1.9</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -3089,7 +3086,7 @@
         <v>10804</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -3098,7 +3095,7 @@
         <v>2.1</v>
       </c>
       <c r="E40">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -3151,7 +3148,7 @@
         <v>10805</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3160,7 +3157,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F41">
         <v>5</v>
